--- a/biology/Zoologie/Ariane_de_Sophie/Ariane_de_Sophie.xlsx
+++ b/biology/Zoologie/Ariane_de_Sophie/Ariane_de_Sophie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Saucerottia saucerottei
 L'Ariane de Sophie (Saucerottia saucerrottei) est une espèce de colibris.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est présent au Nicaragua, au Costa Rica, en Colombie et au Venezuela.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses habitats sont les forêts tropicales et subtropicales humides de basses et hautes altitudes, les forêts et les savanes sèches, les végétations de broussailles sèches et humides mais aussi les anciennes forêts lourdement dégradées, les champs, les jardins ruraux et le milieu urbain.
 </t>
@@ -574,11 +590,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique a longtemps été orthographié saucerrottei avant que la communauté scientifique ne revienne à l'orthographe originale : saucerottei.
-Sous-espèces
-D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international, cette espèce est constituée des quatre sous-espèces suivantes (ordre phylogénique) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ariane_de_Sophie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ariane_de_Sophie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après la classification de référence (version 5.1, 2015) du Congrès ornithologique international, cette espèce est constituée des quatre sous-espèces suivantes (ordre phylogénique) :
 S. saucerottei hoffmanni (Cabanis &amp; Heine, 1860) ;
 S. saucerottei warscewiczi (Cabanis &amp; Heine, 1860) ;
 S. saucerottei saucerrottei (Delattre &amp; Bourcier, 1846) ;
